--- a/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>chassisdef_adder_ADR-Z.Description.Details</t>
   </si>
@@ -135,9 +135,6 @@
     <t>chassisdef_dragonfire_iic_DGR-IIC-A.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite being designed by the Star League before the Exodus, the Dragon Fire was not seen in the Inner Sphere until the 3050s. However, an updated version of the original Star League design was developed as proposed to Clan leadership during the Golden Century but was never adopted in favor of  Omnimechs designs. Not willing to give up on the design, several members of the Society continued redesigning the Dragon Fire in secret. By the Wars of Reaving, the Dragon Fire IIC Omnimech is vastly more advanced than it's Inner Sphere cousin.</t>
-  </si>
-  <si>
     <t>Despite being designed by the Star League before the Exodus, the Dragon Fire was not seen in the Inner Sphere until the 3050s. However, an updated version of the original Star League design was developed as proposed to Clan leadership during the Golden Century but was never adopted in favor of Omnimechs designs. Not willing to give up on the design, several members of the Society continued redesigning the Dragon Fire in secret. By the Wars of Reaving, the Dragon Fire IIC Omnimech is vastly more advanced than it's Inner Sphere cousin.</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>chassisdef_highlander_iic_HGN-IIC-Z.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">The Highlander IIC Z is a Society prototype developed as an Assault test-bed for the new Advanced Torso-Mount Cockpit. The HGN-IIC Z keeps the iconic Gauss Rifle and Jump Jets of its predecessors but sports a pair of Society MRM30s  and a trio of Small Supra Lasers as its remaining armament.</t>
-  </si>
-  <si>
     <t>The Highlander IIC Z is a Society prototype developed as an Assault test-bed for the new Advanced Torso-Mount Cockpit. The HGN-IIC Z keeps the iconic Gauss Rifle and Jump Jets of its predecessors but sports a pair of Society MRM30s and a trio of Small Supra Lasers as its remaining armament.</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>chassisdef_hyperion_HYP-A.YangsThoughts</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>chassisdef_hyperion_HYP-B.Description.Details</t>
   </si>
   <si>
@@ -553,9 +544,6 @@
   </si>
   <si>
     <t>chassisdef_locust_iic_LCT-IIC-Z.YangsThoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the best known BattleMechs in the Inner Sphere for its low production and operation costs, the Locust is also well known in the Clans. In 2832, Clan Mongoose unleashed an upgraded version of the venerable 'Mech on the Clans, known as the Locust IIC. The Z variant  is a Society refit that replaces the engine with a 200SL engine and replaces the weapons payload with 6 Small Supra Lasers and a Nova CEWS.</t>
   </si>
   <si>
     <t>One of the best known BattleMechs in the Inner Sphere for its low production and operation costs, the Locust is also well known in the Clans. In 2832, Clan Mongoose unleashed an upgraded version of the venerable 'Mech on the Clans, known as the Locust IIC. The Z variant is a Society refit that replaces the engine with a 200SL engine and replaces the weapons payload with 6 Small Supra Lasers and a Nova CEWS.</t>
@@ -2496,8 +2484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2804,2958 +2791,2943 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1">
+      <c r="A54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1">
+      <c r="A57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1">
+      <c r="A58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1">
+      <c r="A60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1">
+      <c r="A61" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1">
+      <c r="A63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1">
+      <c r="A64" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1">
+      <c r="A67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1">
+      <c r="A70" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1">
+      <c r="A73" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="1">
+      <c r="A76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" s="3" customFormat="1">
+      <c r="A79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1">
+      <c r="A82" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" s="3" customFormat="1">
+      <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" s="3" customFormat="1">
+      <c r="A88" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" s="3" customFormat="1">
+      <c r="A91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1">
+      <c r="A94" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" s="3" customFormat="1">
+      <c r="A97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" s="3" customFormat="1">
+      <c r="A100" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1">
+      <c r="A103" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" s="3" customFormat="1">
+      <c r="A106" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="1">
+      <c r="A109" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="1">
+      <c r="A112" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" s="3" customFormat="1">
+      <c r="A115" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1">
+      <c r="A118" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" s="3" customFormat="1">
+      <c r="A119" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" s="3" customFormat="1">
+      <c r="A120" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" s="3" customFormat="1">
+      <c r="A121" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1">
-      <c r="A19" s="4" t="s">
+    <row r="122" s="3" customFormat="1">
+      <c r="A122" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" s="3" customFormat="1">
+      <c r="A123" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" s="3" customFormat="1">
+      <c r="A124" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row r="125" s="3" customFormat="1">
+      <c r="A125" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
+    </row>
+    <row r="126" s="3" customFormat="1">
+      <c r="A126" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="127" s="3" customFormat="1">
+      <c r="A127" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" s="3" customFormat="1">
+      <c r="A128" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="1">
+      <c r="A129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="1">
-      <c r="A36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="4" t="s">
+    </row>
+    <row r="130" s="3" customFormat="1">
+      <c r="A130" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1">
-      <c r="A39" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1">
-      <c r="A42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1">
-      <c r="A45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" s="4" customFormat="1">
-      <c r="A46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+    </row>
+    <row r="131" s="3" customFormat="1">
+      <c r="A131" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" s="3" customFormat="1">
+      <c r="A132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" s="3" customFormat="1">
+      <c r="A133" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" s="3" customFormat="1">
+      <c r="A134" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1">
-      <c r="A48" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" s="4" customFormat="1">
-      <c r="A49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" s="4" customFormat="1">
-      <c r="A51" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" s="4" customFormat="1">
-      <c r="A52" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" s="4" customFormat="1">
-      <c r="A54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" s="4" customFormat="1">
-      <c r="A55" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" s="4" customFormat="1">
-      <c r="A58" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" s="4" customFormat="1">
-      <c r="A60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" s="4" customFormat="1">
-      <c r="A61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" s="4" customFormat="1">
-      <c r="A63" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" s="4" customFormat="1">
-      <c r="A64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+    </row>
+    <row r="135" s="3" customFormat="1">
+      <c r="A135" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="1">
+      <c r="A136" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" s="3" customFormat="1">
+      <c r="A137" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" s="3" customFormat="1">
+      <c r="A138" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" s="3" customFormat="1">
+      <c r="A139" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" s="3" customFormat="1">
+      <c r="A140" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" s="4" customFormat="1">
-      <c r="A67" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+    </row>
+    <row r="141" s="3" customFormat="1">
+      <c r="A141" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" s="4" customFormat="1">
-      <c r="A70" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" s="4" customFormat="1">
-      <c r="A72" s="4" t="s">
+    </row>
+    <row r="142" s="3" customFormat="1">
+      <c r="A142" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" s="4" customFormat="1">
-      <c r="A73" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="143" s="3" customFormat="1">
+      <c r="A143" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" s="4" customFormat="1">
-      <c r="A76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" s="4" customFormat="1">
-      <c r="A79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="3" t="s">
+    </row>
+    <row r="144" s="3" customFormat="1">
+      <c r="A144" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" s="3" customFormat="1">
+      <c r="A145" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" s="4" customFormat="1">
-      <c r="A82" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="1">
-      <c r="A85" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    </row>
+    <row r="146" s="3" customFormat="1">
+      <c r="A146" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" s="3" customFormat="1">
+      <c r="A147" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" s="4" customFormat="1">
-      <c r="A88" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="s">
+    </row>
+    <row r="148" s="3" customFormat="1">
+      <c r="A148" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" s="4" customFormat="1">
-      <c r="A91" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="s">
+    </row>
+    <row r="149" s="3" customFormat="1">
+      <c r="A149" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" s="4" customFormat="1">
-      <c r="A94" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="3" t="s">
+    </row>
+    <row r="150" s="3" customFormat="1">
+      <c r="A150" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" s="4" customFormat="1">
-      <c r="A97" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" s="3" t="s">
+    </row>
+    <row r="151" s="3" customFormat="1">
+      <c r="A151" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" s="4" customFormat="1">
-      <c r="A100" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="152" s="3" customFormat="1">
+      <c r="A152" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="103" s="4" customFormat="1">
-      <c r="A103" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C104" s="3" t="s">
+    </row>
+    <row r="153" s="3" customFormat="1">
+      <c r="A153" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" s="4" customFormat="1">
-      <c r="A106" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" s="3" t="s">
+    </row>
+    <row r="154" s="3" customFormat="1">
+      <c r="A154" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" s="4" customFormat="1">
-      <c r="A109" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" s="4" customFormat="1">
-      <c r="A112" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C113" s="3" t="s">
+    </row>
+    <row r="155" s="3" customFormat="1">
+      <c r="A155" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" s="3" customFormat="1">
+      <c r="A156" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115" s="4" customFormat="1">
-      <c r="A115" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="118" s="4" customFormat="1">
-      <c r="A118" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" s="4" customFormat="1">
-      <c r="A119" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" s="4" customFormat="1">
-      <c r="A120" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" s="4" customFormat="1">
-      <c r="A121" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" s="4" customFormat="1">
-      <c r="A122" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" s="4" customFormat="1">
-      <c r="A123" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" s="4" customFormat="1">
-      <c r="A124" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" s="4" customFormat="1">
-      <c r="A125" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" s="4" customFormat="1">
-      <c r="A126" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="127" s="4" customFormat="1">
-      <c r="A127" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" s="4" customFormat="1">
-      <c r="A128" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="129" s="4" customFormat="1">
-      <c r="A129" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" s="4" customFormat="1">
-      <c r="A130" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" s="4" customFormat="1">
-      <c r="A131" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="132" s="4" customFormat="1">
-      <c r="A132" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="133" s="4" customFormat="1">
-      <c r="A133" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="134" s="4" customFormat="1">
-      <c r="A134" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" s="4" customFormat="1">
-      <c r="A135" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" s="4" customFormat="1">
-      <c r="A136" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" s="4" customFormat="1">
-      <c r="A137" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" s="4" customFormat="1">
-      <c r="A138" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" s="4" customFormat="1">
-      <c r="A139" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="140" s="4" customFormat="1">
-      <c r="A140" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="141" s="4" customFormat="1">
-      <c r="A141" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" s="4" customFormat="1">
-      <c r="A142" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" s="4" customFormat="1">
-      <c r="A143" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" s="4" customFormat="1">
-      <c r="A144" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="145" s="4" customFormat="1">
-      <c r="A145" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" s="4" customFormat="1">
-      <c r="A146" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="147" s="4" customFormat="1">
-      <c r="A147" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" s="4" customFormat="1">
-      <c r="A148" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" s="4" customFormat="1">
-      <c r="A149" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" s="4" customFormat="1">
-      <c r="A150" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="151" s="4" customFormat="1">
-      <c r="A151" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="152" s="4" customFormat="1">
-      <c r="A152" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="153" s="4" customFormat="1">
-      <c r="A153" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="154" s="4" customFormat="1">
-      <c r="A154" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="155" s="4" customFormat="1">
-      <c r="A155" s="4" t="s">
+    </row>
+    <row r="157" s="3" customFormat="1">
+      <c r="A157" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="156" s="4" customFormat="1">
-      <c r="A156" s="4" t="s">
+    <row r="158">
+      <c r="A158" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="157" s="4" customFormat="1">
-      <c r="A157" s="4" t="s">
+      <c r="B158" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="C158" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="4" t="s">
+    </row>
+    <row r="159" s="3" customFormat="1">
+      <c r="A159" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="3" t="s">
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="159" s="4" customFormat="1">
-      <c r="A159" s="4" t="s">
+      <c r="B160" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" s="3" customFormat="1">
+      <c r="A161" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C161" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="3" t="s">
+    <row r="162">
+      <c r="A162" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B162" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="163" s="3" customFormat="1">
+      <c r="A163" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165" s="3" customFormat="1">
+      <c r="A165" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="167" s="3" customFormat="1">
+      <c r="A167" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="169" s="3" customFormat="1">
+      <c r="A169" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" s="3" customFormat="1">
+      <c r="A171" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="173" s="3" customFormat="1">
+      <c r="A173" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="175" s="3" customFormat="1">
+      <c r="A175" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="177" s="3" customFormat="1">
+      <c r="A177" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="179" s="3" customFormat="1">
+      <c r="A179" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="181" s="3" customFormat="1">
+      <c r="A181" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="183" s="3" customFormat="1">
+      <c r="A183" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="185" s="3" customFormat="1">
+      <c r="A185" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="187" s="3" customFormat="1">
+      <c r="A187" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="189" s="3" customFormat="1">
+      <c r="A189" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="190" s="3" customFormat="1">
+      <c r="A190" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="161" s="4" customFormat="1">
-      <c r="A161" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B161" s="4" t="s">
+    </row>
+    <row r="191" s="3" customFormat="1">
+      <c r="A191" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="192" s="3" customFormat="1">
+      <c r="A192" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C192" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="163" s="4" customFormat="1">
-      <c r="A163" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B163" s="4" t="s">
+    <row r="193" s="3" customFormat="1">
+      <c r="A193" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C193" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="165" s="4" customFormat="1">
-      <c r="A165" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B165" s="4" t="s">
+    <row r="194" s="3" customFormat="1">
+      <c r="A194" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C194" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="167" s="4" customFormat="1">
-      <c r="A167" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B167" s="4" t="s">
+    <row r="195" s="3" customFormat="1">
+      <c r="A195" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C195" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="169" s="4" customFormat="1">
-      <c r="A169" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B169" s="4" t="s">
+    <row r="196" s="3" customFormat="1">
+      <c r="A196" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C196" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="171" s="4" customFormat="1">
-      <c r="A171" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="3" t="s">
+    <row r="197" s="3" customFormat="1">
+      <c r="A197" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="198" s="3" customFormat="1">
+      <c r="A198" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="173" s="4" customFormat="1">
-      <c r="A173" s="4" t="s">
+      <c r="C198" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="175" s="4" customFormat="1">
-      <c r="A175" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B175" s="4" t="s">
+    </row>
+    <row r="199" s="3" customFormat="1">
+      <c r="A199" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C199" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="177" s="4" customFormat="1">
-      <c r="A177" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B177" s="4" t="s">
+    <row r="200" s="3" customFormat="1">
+      <c r="A200" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C200" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="179" s="4" customFormat="1">
-      <c r="A179" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B179" s="4" t="s">
+    <row r="201" s="3" customFormat="1">
+      <c r="A201" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C201" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="181" s="4" customFormat="1">
-      <c r="A181" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B181" s="4" t="s">
+    <row r="202" s="3" customFormat="1">
+      <c r="A202" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C202" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="183" s="4" customFormat="1">
-      <c r="A183" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B183" s="4" t="s">
+    <row r="203" s="3" customFormat="1">
+      <c r="A203" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="185" s="4" customFormat="1">
-      <c r="A185" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B185" s="4" t="s">
+    <row r="204" s="3" customFormat="1">
+      <c r="A204" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="187" s="4" customFormat="1">
-      <c r="A187" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="189" s="4" customFormat="1">
-      <c r="A189" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="190" s="4" customFormat="1">
-      <c r="A190" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="191" s="4" customFormat="1">
-      <c r="A191" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="192" s="4" customFormat="1">
-      <c r="A192" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="193" s="4" customFormat="1">
-      <c r="A193" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="194" s="4" customFormat="1">
-      <c r="A194" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="195" s="4" customFormat="1">
-      <c r="A195" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="196" s="4" customFormat="1">
-      <c r="A196" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="197" s="4" customFormat="1">
-      <c r="A197" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="198" s="4" customFormat="1">
-      <c r="A198" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="199" s="4" customFormat="1">
-      <c r="A199" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="200" s="4" customFormat="1">
-      <c r="A200" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201" s="4" customFormat="1">
-      <c r="A201" s="4" t="s">
+    <row r="205" s="3" customFormat="1">
+      <c r="A205" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="202" s="4" customFormat="1">
-      <c r="A202" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="203" s="4" customFormat="1">
-      <c r="A203" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="204" s="4" customFormat="1">
-      <c r="A204" s="4" t="s">
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="205" s="4" customFormat="1">
-      <c r="A205" s="4" t="s">
+      <c r="B206" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="C206" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="B207" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="208" s="3" customFormat="1">
+      <c r="A208" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="3" t="s">
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="208" s="4" customFormat="1">
-      <c r="A208" s="4" t="s">
+      <c r="B209" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="C209" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="B210" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="211" s="3" customFormat="1">
+      <c r="A211" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="3" t="s">
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="211" s="4" customFormat="1">
-      <c r="A211" s="4" t="s">
+      <c r="B212" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="C212" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="B213" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="214" s="3" customFormat="1">
+      <c r="A214" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="3" t="s">
+      <c r="B214" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="C214" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="3" t="s">
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="214" s="4" customFormat="1">
-      <c r="A214" s="4" t="s">
+      <c r="B215" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="C215" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="B216" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="217" s="3" customFormat="1">
+      <c r="A217" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="3" t="s">
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="217" s="4" customFormat="1">
-      <c r="A217" s="4" t="s">
+      <c r="B218" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="C218" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="B219" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="220" s="3" customFormat="1">
+      <c r="A220" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="3" t="s">
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="220" s="4" customFormat="1">
-      <c r="A220" s="4" t="s">
+      <c r="B221" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="C221" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="B222" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="C223" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="3" t="s">
+      <c r="C224" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="225" s="3" customFormat="1">
+      <c r="A225" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="3" t="s">
+      <c r="C225" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B224" s="3" t="s">
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="225" s="4" customFormat="1">
-      <c r="A225" s="4" t="s">
+      <c r="B226" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="C226" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="B227" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="228" s="3" customFormat="1">
+      <c r="A228" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="C228" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="3" t="s">
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="228" s="4" customFormat="1">
-      <c r="A228" s="4" t="s">
+      <c r="B229" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C229" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="B230" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="231" s="3" customFormat="1">
+      <c r="A231" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="C231" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C229" s="3" t="s">
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="234" s="3" customFormat="1">
+      <c r="A234" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B230" s="3" t="s">
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="237" s="3" customFormat="1">
+      <c r="A237" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="231" s="4" customFormat="1">
-      <c r="A231" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="234" s="4" customFormat="1">
-      <c r="A234" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="3" t="s">
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C238" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="3" t="s">
+    <row r="239">
+      <c r="A239" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B239" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="237" s="4" customFormat="1">
-      <c r="A237" s="4" t="s">
+    <row r="240" s="3" customFormat="1">
+      <c r="A240" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="3" t="s">
+      <c r="B240" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="C240" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C238" s="3" t="s">
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="243" s="3" customFormat="1">
+      <c r="A243" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B239" s="3" t="s">
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="246" s="3" customFormat="1">
+      <c r="A246" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C239" s="3" t="s">
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="249" s="3" customFormat="1">
+      <c r="A249" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="240" s="4" customFormat="1">
-      <c r="A240" s="4" t="s">
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="243" s="4" customFormat="1">
-      <c r="A243" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="246" s="4" customFormat="1">
-      <c r="A246" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="3" t="s">
+      <c r="C250" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="249" s="4" customFormat="1">
-      <c r="A249" s="4" t="s">
+    <row r="252">
+      <c r="A252" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="3" t="s">
+      <c r="B252" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="3" t="s">
+      <c r="C252" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="3" t="s">
+    <row r="254">
+      <c r="A254" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B254" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C254" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="3" t="s">
+    <row r="255">
+      <c r="A255" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C255" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="3" t="s">
+    <row r="256">
+      <c r="A256" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B256" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C256" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="3" t="s">
+    <row r="257">
+      <c r="A257" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B257" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C257" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="3" t="s">
+    <row r="258">
+      <c r="A258" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B258" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C258" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="3" t="s">
+    <row r="259">
+      <c r="A259" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C259" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="3" t="s">
+    <row r="260" s="3" customFormat="1">
+      <c r="A260" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B260" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B259" s="3" t="s">
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C259" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="260" s="4" customFormat="1">
-      <c r="A260" s="4" t="s">
+      <c r="B261" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="C261" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="B262" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="3" t="s">
+      <c r="C262" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B263" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="3" t="s">
+      <c r="B264" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C265" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="3" t="s">
+    <row r="266">
+      <c r="A266" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B264" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="3" t="s">
+      <c r="C266" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B267" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="3" t="s">
+      <c r="B268" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="C268" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="3" t="s">
+      <c r="B269" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>505</v>
+      <c r="C269" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
   <si>
     <t>chassisdef_adder_ADR-Z.Description.Details</t>
   </si>
@@ -135,6 +135,9 @@
     <t>chassisdef_dragonfire_iic_DGR-IIC-A.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">Despite being designed by the Star League before the Exodus, the Dragon Fire was not seen in the Inner Sphere until the 3050s. However, an updated version of the original Star League design was developed as proposed to Clan leadership during the Golden Century but was never adopted in favor of  Omnimechs designs. Not willing to give up on the design, several members of the Society continued redesigning the Dragon Fire in secret. By the Wars of Reaving, the Dragon Fire IIC Omnimech is vastly more advanced than it's Inner Sphere cousin.</t>
+  </si>
+  <si>
     <t>Despite being designed by the Star League before the Exodus, the Dragon Fire was not seen in the Inner Sphere until the 3050s. However, an updated version of the original Star League design was developed as proposed to Clan leadership during the Golden Century but was never adopted in favor of Omnimechs designs. Not willing to give up on the design, several members of the Society continued redesigning the Dragon Fire in secret. By the Wars of Reaving, the Dragon Fire IIC Omnimech is vastly more advanced than it's Inner Sphere cousin.</t>
   </si>
   <si>
@@ -333,6 +336,9 @@
     <t>chassisdef_highlander_iic_HGN-IIC-Z.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">The Highlander IIC Z is a Society prototype developed as an Assault test-bed for the new Advanced Torso-Mount Cockpit. The HGN-IIC Z keeps the iconic Gauss Rifle and Jump Jets of its predecessors but sports a pair of Society MRM30s  and a trio of Small Supra Lasers as its remaining armament.</t>
+  </si>
+  <si>
     <t>The Highlander IIC Z is a Society prototype developed as an Assault test-bed for the new Advanced Torso-Mount Cockpit. The HGN-IIC Z keeps the iconic Gauss Rifle and Jump Jets of its predecessors but sports a pair of Society MRM30s and a trio of Small Supra Lasers as its remaining armament.</t>
   </si>
   <si>
@@ -362,6 +368,9 @@
     <t>chassisdef_hyperion_HYP-A.YangsThoughts</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>chassisdef_hyperion_HYP-B.Description.Details</t>
   </si>
   <si>
@@ -544,6 +553,9 @@
   </si>
   <si>
     <t>chassisdef_locust_iic_LCT-IIC-Z.YangsThoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best known BattleMechs in the Inner Sphere for its low production and operation costs, the Locust is also well known in the Clans. In 2832, Clan Mongoose unleashed an upgraded version of the venerable 'Mech on the Clans, known as the Locust IIC. The Z variant  is a Society refit that replaces the engine with a 200SL engine and replaces the weapons payload with 6 Small Supra Lasers and a Nova CEWS.</t>
   </si>
   <si>
     <t>One of the best known BattleMechs in the Inner Sphere for its low production and operation costs, the Locust is also well known in the Clans. In 2832, Clan Mongoose unleashed an upgraded version of the venerable 'Mech on the Clans, known as the Locust IIC. The Z variant is a Society refit that replaces the engine with a 200SL engine and replaces the weapons payload with 6 Small Supra Lasers and a Nova CEWS.</t>
@@ -2484,7 +2496,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2791,2943 +2804,2958 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="4" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="4" customFormat="1">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="16" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1">
+      <c r="A36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1">
+      <c r="A39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" s="4" customFormat="1">
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1">
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" s="4" customFormat="1">
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" s="4" customFormat="1">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1">
+      <c r="A51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1">
+      <c r="A52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1">
+      <c r="A54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1">
+      <c r="A55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1">
+      <c r="A57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="1">
+      <c r="A58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="1">
+      <c r="A60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="1">
+      <c r="A61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" s="4" customFormat="1">
+      <c r="A63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="1">
+      <c r="A64" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" s="4" customFormat="1">
+      <c r="A67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1">
+      <c r="A70" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="1">
+      <c r="A72" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1">
+      <c r="A73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" s="4" customFormat="1">
+      <c r="A76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" s="4" customFormat="1">
+      <c r="A79" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1">
+      <c r="A82" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1">
+      <c r="A85" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" s="4" customFormat="1">
+      <c r="A88" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1">
+      <c r="A91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1">
+      <c r="A94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1">
+      <c r="A97" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" s="4" customFormat="1">
+      <c r="A100" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" s="4" customFormat="1">
+      <c r="A103" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1">
+      <c r="A106" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" s="4" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" s="4" customFormat="1">
+      <c r="A112" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" s="4" customFormat="1">
+      <c r="A115" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" s="4" customFormat="1">
+      <c r="A118" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" s="4" customFormat="1">
+      <c r="A119" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" s="4" customFormat="1">
+      <c r="A120" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" s="4" customFormat="1">
+      <c r="A121" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="122" s="4" customFormat="1">
+      <c r="A122" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" s="4" customFormat="1">
+      <c r="A123" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" s="4" customFormat="1">
+      <c r="A124" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="C124" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="125" s="4" customFormat="1">
+      <c r="A125" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="C125" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="126" s="4" customFormat="1">
+      <c r="A126" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="C126" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="3" t="s">
+    </row>
+    <row r="127" s="4" customFormat="1">
+      <c r="A127" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" s="4" customFormat="1">
+      <c r="A128" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" s="4" customFormat="1">
+      <c r="A129" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="C129" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="130" s="4" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C130" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="131" s="4" customFormat="1">
+      <c r="A131" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="132" s="4" customFormat="1">
+      <c r="A132" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="133" s="4" customFormat="1">
+      <c r="A133" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" s="3" customFormat="1">
-      <c r="A43" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" s="3" customFormat="1">
-      <c r="A46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="134" s="4" customFormat="1">
+      <c r="A134" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C134" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" s="4" customFormat="1">
+      <c r="A135" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" s="3" customFormat="1">
-      <c r="A51" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="1">
-      <c r="A52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="136" s="4" customFormat="1">
+      <c r="A136" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C136" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" s="4" customFormat="1">
+      <c r="A137" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" s="3" customFormat="1">
-      <c r="A54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" s="3" customFormat="1">
-      <c r="A55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="C137" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" s="4" customFormat="1">
+      <c r="A138" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" s="3" customFormat="1">
-      <c r="A57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="1">
-      <c r="A58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1">
-      <c r="A60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" s="3" customFormat="1">
-      <c r="A61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" s="3" customFormat="1">
-      <c r="A63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" s="3" customFormat="1">
-      <c r="A64" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" s="3" customFormat="1">
-      <c r="A67" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="C138" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" s="4" customFormat="1">
+      <c r="A139" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" s="4" customFormat="1">
+      <c r="A140" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C140" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" s="3" customFormat="1">
-      <c r="A70" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
+    <row r="141" s="4" customFormat="1">
+      <c r="A141" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C141" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" s="3" customFormat="1">
-      <c r="A73" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="2" t="s">
+    </row>
+    <row r="142" s="4" customFormat="1">
+      <c r="A142" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="C142" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" s="3" customFormat="1">
-      <c r="A76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" s="2" t="s">
+    </row>
+    <row r="143" s="4" customFormat="1">
+      <c r="A143" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="C143" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" s="3" customFormat="1">
-      <c r="A79" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1">
-      <c r="A82" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
+    </row>
+    <row r="144" s="4" customFormat="1">
+      <c r="A144" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" s="4" customFormat="1">
+      <c r="A145" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C145" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" s="3" customFormat="1">
-      <c r="A85" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" s="3" customFormat="1">
-      <c r="A88" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    </row>
+    <row r="146" s="4" customFormat="1">
+      <c r="A146" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" s="4" customFormat="1">
+      <c r="A147" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" s="3" customFormat="1">
-      <c r="A91" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    </row>
+    <row r="148" s="4" customFormat="1">
+      <c r="A148" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" s="3" customFormat="1">
-      <c r="A94" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="2" t="s">
+    </row>
+    <row r="149" s="4" customFormat="1">
+      <c r="A149" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="C149" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" s="3" customFormat="1">
-      <c r="A97" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="2" t="s">
+    </row>
+    <row r="150" s="4" customFormat="1">
+      <c r="A150" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="C150" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" s="3" customFormat="1">
-      <c r="A100" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
+    </row>
+    <row r="151" s="4" customFormat="1">
+      <c r="A151" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C151" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" s="3" customFormat="1">
-      <c r="A103" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="2" t="s">
+    </row>
+    <row r="152" s="4" customFormat="1">
+      <c r="A152" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
+      <c r="C152" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="106" s="3" customFormat="1">
-      <c r="A106" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107" s="2" t="s">
+    </row>
+    <row r="153" s="4" customFormat="1">
+      <c r="A153" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
+      <c r="C153" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="109" s="3" customFormat="1">
-      <c r="A109" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C110" s="2" t="s">
+    </row>
+    <row r="154" s="4" customFormat="1">
+      <c r="A154" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="C154" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" s="3" customFormat="1">
-      <c r="A112" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115" s="3" customFormat="1">
-      <c r="A115" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B117" s="2" t="s">
+    </row>
+    <row r="155" s="4" customFormat="1">
+      <c r="A155" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" s="4" customFormat="1">
+      <c r="A156" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="118" s="3" customFormat="1">
-      <c r="A118" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" s="3" customFormat="1">
-      <c r="A119" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="120" s="3" customFormat="1">
-      <c r="A120" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" s="3" customFormat="1">
-      <c r="A121" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" s="3" customFormat="1">
-      <c r="A122" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" s="3" customFormat="1">
-      <c r="A123" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" s="3" customFormat="1">
-      <c r="A124" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" s="3" customFormat="1">
-      <c r="A125" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" s="3" customFormat="1">
-      <c r="A126" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" s="3" customFormat="1">
-      <c r="A127" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128" s="3" customFormat="1">
-      <c r="A128" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="129" s="3" customFormat="1">
-      <c r="A129" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="130" s="3" customFormat="1">
-      <c r="A130" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" s="3" customFormat="1">
-      <c r="A131" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" s="3" customFormat="1">
-      <c r="A132" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" s="3" customFormat="1">
-      <c r="A133" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" s="3" customFormat="1">
-      <c r="A134" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="135" s="3" customFormat="1">
-      <c r="A135" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" s="3" customFormat="1">
-      <c r="A136" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="137" s="3" customFormat="1">
-      <c r="A137" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="138" s="3" customFormat="1">
-      <c r="A138" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="139" s="3" customFormat="1">
-      <c r="A139" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" s="3" customFormat="1">
-      <c r="A140" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="141" s="3" customFormat="1">
-      <c r="A141" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="142" s="3" customFormat="1">
-      <c r="A142" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" s="3" customFormat="1">
-      <c r="A143" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" s="3" customFormat="1">
-      <c r="A144" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" s="3" customFormat="1">
-      <c r="A145" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" s="3" customFormat="1">
-      <c r="A146" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" s="3" customFormat="1">
-      <c r="A147" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="148" s="3" customFormat="1">
-      <c r="A148" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="149" s="3" customFormat="1">
-      <c r="A149" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" s="3" customFormat="1">
-      <c r="A150" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" s="3" customFormat="1">
-      <c r="A151" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="152" s="3" customFormat="1">
-      <c r="A152" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="153" s="3" customFormat="1">
-      <c r="A153" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="154" s="3" customFormat="1">
-      <c r="A154" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="155" s="3" customFormat="1">
-      <c r="A155" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="156" s="3" customFormat="1">
-      <c r="A156" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="157" s="3" customFormat="1">
-      <c r="A157" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>303</v>
+    </row>
+    <row r="157" s="4" customFormat="1">
+      <c r="A157" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C158" s="2" t="s">
+      <c r="A158" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" s="4" customFormat="1">
+      <c r="A159" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="161" s="4" customFormat="1">
+      <c r="A161" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" s="4" customFormat="1">
+      <c r="A163" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="165" s="4" customFormat="1">
+      <c r="A165" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" s="4" customFormat="1">
+      <c r="A167" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1">
+      <c r="A169" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="171" s="4" customFormat="1">
+      <c r="A171" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" s="4" customFormat="1">
+      <c r="A173" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="175" s="4" customFormat="1">
+      <c r="A175" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" s="4" customFormat="1">
+      <c r="A177" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="179" s="4" customFormat="1">
+      <c r="A179" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="181" s="4" customFormat="1">
+      <c r="A181" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="183" s="4" customFormat="1">
+      <c r="A183" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="185" s="4" customFormat="1">
+      <c r="A185" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="187" s="4" customFormat="1">
+      <c r="A187" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="189" s="4" customFormat="1">
+      <c r="A189" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="159" s="3" customFormat="1">
-      <c r="A159" s="3" t="s">
+      <c r="C189" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="161" s="3" customFormat="1">
-      <c r="A161" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B161" s="3" t="s">
+    </row>
+    <row r="190" s="4" customFormat="1">
+      <c r="A190" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C190" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="163" s="3" customFormat="1">
-      <c r="A163" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B163" s="3" t="s">
+    <row r="191" s="4" customFormat="1">
+      <c r="A191" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="165" s="3" customFormat="1">
-      <c r="A165" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B165" s="3" t="s">
+    <row r="192" s="4" customFormat="1">
+      <c r="A192" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C192" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="167" s="3" customFormat="1">
-      <c r="A167" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B167" s="3" t="s">
+    <row r="193" s="4" customFormat="1">
+      <c r="A193" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C193" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" s="3" customFormat="1">
-      <c r="A169" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B169" s="3" t="s">
+    <row r="194" s="4" customFormat="1">
+      <c r="A194" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C194" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" s="3" customFormat="1">
-      <c r="A171" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B171" s="3" t="s">
+    <row r="195" s="4" customFormat="1">
+      <c r="A195" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C195" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="173" s="3" customFormat="1">
-      <c r="A173" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
+    <row r="196" s="4" customFormat="1">
+      <c r="A196" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="175" s="3" customFormat="1">
-      <c r="A175" s="3" t="s">
+      <c r="C196" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="177" s="3" customFormat="1">
-      <c r="A177" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B177" s="3" t="s">
+    </row>
+    <row r="197" s="4" customFormat="1">
+      <c r="A197" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="198" s="4" customFormat="1">
+      <c r="A198" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C198" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="179" s="3" customFormat="1">
-      <c r="A179" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B179" s="3" t="s">
+    <row r="199" s="4" customFormat="1">
+      <c r="A199" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C199" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="181" s="3" customFormat="1">
-      <c r="A181" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B181" s="3" t="s">
+    <row r="200" s="4" customFormat="1">
+      <c r="A200" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C200" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="183" s="3" customFormat="1">
-      <c r="A183" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B183" s="3" t="s">
+    <row r="201" s="4" customFormat="1">
+      <c r="A201" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C201" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="185" s="3" customFormat="1">
-      <c r="A185" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B185" s="3" t="s">
+    <row r="202" s="4" customFormat="1">
+      <c r="A202" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C202" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="187" s="3" customFormat="1">
-      <c r="A187" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B187" s="3" t="s">
+    <row r="203" s="4" customFormat="1">
+      <c r="A203" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C203" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="189" s="3" customFormat="1">
-      <c r="A189" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="190" s="3" customFormat="1">
-      <c r="A190" s="3" t="s">
+    <row r="204" s="4" customFormat="1">
+      <c r="A204" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="191" s="3" customFormat="1">
-      <c r="A191" s="3" t="s">
+      <c r="C204" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="192" s="3" customFormat="1">
-      <c r="A192" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="193" s="3" customFormat="1">
-      <c r="A193" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="194" s="3" customFormat="1">
-      <c r="A194" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="195" s="3" customFormat="1">
-      <c r="A195" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="196" s="3" customFormat="1">
-      <c r="A196" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="197" s="3" customFormat="1">
-      <c r="A197" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="198" s="3" customFormat="1">
-      <c r="A198" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="199" s="3" customFormat="1">
-      <c r="A199" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="200" s="3" customFormat="1">
-      <c r="A200" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="201" s="3" customFormat="1">
-      <c r="A201" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="202" s="3" customFormat="1">
-      <c r="A202" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="203" s="3" customFormat="1">
-      <c r="A203" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="204" s="3" customFormat="1">
-      <c r="A204" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="205" s="3" customFormat="1">
-      <c r="A205" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>383</v>
+    </row>
+    <row r="205" s="4" customFormat="1">
+      <c r="A205" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>385</v>
+      <c r="A206" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="208" s="3" customFormat="1">
-      <c r="A208" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C208" s="3" t="s">
+      <c r="A207" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>389</v>
       </c>
+      <c r="C207" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="208" s="4" customFormat="1">
+      <c r="A208" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>391</v>
+      <c r="A209" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="211" s="3" customFormat="1">
-      <c r="A211" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C211" s="3" t="s">
+      <c r="A210" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>395</v>
       </c>
+      <c r="C210" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="211" s="4" customFormat="1">
+      <c r="A211" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>397</v>
+      <c r="A212" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="214" s="3" customFormat="1">
-      <c r="A214" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C214" s="3" t="s">
+      <c r="A213" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>401</v>
       </c>
+      <c r="C213" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214" s="4" customFormat="1">
+      <c r="A214" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>403</v>
+      <c r="A215" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="217" s="3" customFormat="1">
-      <c r="A217" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C217" s="3" t="s">
+      <c r="A216" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>407</v>
       </c>
+      <c r="C216" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="217" s="4" customFormat="1">
+      <c r="A217" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>409</v>
+      <c r="A218" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="220" s="3" customFormat="1">
-      <c r="A220" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C220" s="3" t="s">
+      <c r="A219" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>413</v>
       </c>
+      <c r="C219" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="220" s="4" customFormat="1">
+      <c r="A220" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>415</v>
+      <c r="A221" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>415</v>
+      <c r="A222" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>418</v>
+      <c r="A223" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="225" s="3" customFormat="1">
-      <c r="A225" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C225" s="3" t="s">
+      <c r="A224" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="B224" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="225" s="4" customFormat="1">
+      <c r="A225" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>425</v>
+      <c r="A226" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="228" s="3" customFormat="1">
-      <c r="A228" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C228" s="3" t="s">
+      <c r="A227" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="C227" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="228" s="4" customFormat="1">
+      <c r="A228" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>431</v>
+      <c r="A229" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="231" s="3" customFormat="1">
-      <c r="A231" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C231" s="3" t="s">
+      <c r="A230" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="C230" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="231" s="4" customFormat="1">
+      <c r="A231" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>437</v>
+      <c r="A232" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="234" s="4" customFormat="1">
+      <c r="A234" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="234" s="3" customFormat="1">
-      <c r="A234" s="3" t="s">
+      <c r="C234" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>441</v>
+      <c r="A235" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="237" s="3" customFormat="1">
-      <c r="A237" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>435</v>
+      <c r="A236" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="237" s="4" customFormat="1">
+      <c r="A237" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>445</v>
+      <c r="A238" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="240" s="3" customFormat="1">
-      <c r="A240" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C240" s="3" t="s">
+      <c r="A239" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>449</v>
       </c>
+      <c r="C239" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="240" s="4" customFormat="1">
+      <c r="A240" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>451</v>
+      <c r="A241" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="243" s="4" customFormat="1">
+      <c r="A243" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="C243" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C242" s="2" t="s">
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="246" s="4" customFormat="1">
+      <c r="A246" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="243" s="3" customFormat="1">
-      <c r="A243" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
+    <row r="247">
+      <c r="A247" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="249" s="4" customFormat="1">
+      <c r="A249" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="246" s="3" customFormat="1">
-      <c r="A246" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="249" s="3" customFormat="1">
-      <c r="A249" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>451</v>
+      <c r="C250" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>467</v>
+      <c r="A251" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>469</v>
+      <c r="A252" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>471</v>
+      <c r="A253" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>473</v>
+      <c r="A254" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>475</v>
+      <c r="A255" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>477</v>
+      <c r="A256" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B257" s="2" t="s">
+      <c r="A257" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="260" s="4" customFormat="1">
+      <c r="A260" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C263" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B258" s="2" t="s">
+    <row r="264">
+      <c r="A264" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C264" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="260" s="3" customFormat="1">
-      <c r="A260" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
     <row r="265">
-      <c r="A265" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>494</v>
+      <c r="A265" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>496</v>
+      <c r="A266" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>496</v>
+      <c r="A267" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>499</v>
+      <c r="A268" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>501</v>
+      <c r="A269" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -2102,7 +2102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2408,4571 +2409,4571 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="78.85546875" customWidth="1" style="1"/>
+    <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="D64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1">
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="D77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="1">
+      <c r="D78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1">
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1">
+      <c r="D81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1">
+      <c r="D82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1">
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="1">
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="1">
+      <c r="D85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="1">
+      <c r="D86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="1">
+      <c r="D87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2">
         <v>87</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="D89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="1">
+      <c r="D90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1">
+      <c r="D91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="1">
+      <c r="D92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1">
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2">
         <v>93</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="1">
+      <c r="D94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1">
+      <c r="D95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2">
         <v>95</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="1">
+      <c r="D96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="1">
+      <c r="D97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="1">
+      <c r="D98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2">
         <v>98</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="1">
+      <c r="D99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="1">
+      <c r="D100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1">
+      <c r="D101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2">
         <v>101</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="1">
+      <c r="D102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="2">
         <v>102</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="1">
+      <c r="D103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2">
         <v>103</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1">
+      <c r="D104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="2">
         <v>104</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="1">
+      <c r="D105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2">
         <v>105</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2">
         <v>106</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="1">
+      <c r="D107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2">
         <v>107</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1">
+      <c r="D108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="2">
         <v>108</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="1">
+      <c r="D109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="2">
         <v>109</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="1">
+      <c r="D110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="1">
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
         <v>111</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="1">
+      <c r="D112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2">
         <v>112</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" s="1">
+      <c r="D113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2">
         <v>113</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1">
+      <c r="D114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2">
         <v>114</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1">
+      <c r="D115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2">
         <v>115</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="1">
+      <c r="D116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2">
         <v>116</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" s="1">
+      <c r="D117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="2">
         <v>117</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="1">
+      <c r="D118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="1">
+      <c r="D119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2">
         <v>119</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="1">
+      <c r="D120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="1">
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2">
         <v>121</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="1">
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2">
         <v>122</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="1">
+      <c r="D123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2">
         <v>123</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="1">
+      <c r="D124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2">
         <v>124</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E125" s="1">
+      <c r="D125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="2">
         <v>125</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="1">
+      <c r="D126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="2">
         <v>126</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="1">
+      <c r="D127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2">
         <v>127</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="1">
+      <c r="D128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2">
         <v>128</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E129" s="1">
+      <c r="D129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2">
         <v>129</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="1">
+      <c r="D130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E131" s="1">
+      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2">
         <v>131</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E132" s="1">
+      <c r="D132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2">
         <v>132</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="1">
+      <c r="D133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2">
         <v>133</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="1">
+      <c r="D134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="1">
+      <c r="D135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2">
         <v>135</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" s="1">
+      <c r="D136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2">
         <v>136</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="1">
+      <c r="D137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2">
         <v>137</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E138" s="1">
+      <c r="D138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2">
         <v>138</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E139" s="1">
+      <c r="D139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2">
         <v>139</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="1">
+      <c r="D140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2">
         <v>140</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E141" s="1">
+      <c r="D141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2">
         <v>141</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142" s="1">
+      <c r="D142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="2">
         <v>142</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E143" s="1">
+      <c r="D143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="2">
         <v>143</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E144" s="1">
+      <c r="D144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2">
         <v>144</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145" s="1">
+      <c r="D145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="2">
         <v>145</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="1">
+      <c r="D146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2">
         <v>146</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="1">
+      <c r="D147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="2">
         <v>147</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" s="1">
+      <c r="D148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="2">
         <v>148</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E149" s="1">
+      <c r="D149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="2">
         <v>149</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="1">
+      <c r="D150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E151" s="1">
+      <c r="D151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="2">
         <v>151</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="D152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2">
         <v>152</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" s="1">
+      <c r="D153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E154" s="1">
+      <c r="D154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2">
         <v>154</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" s="1">
+      <c r="D155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="2">
         <v>155</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E156" s="1">
+      <c r="D156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="2">
         <v>156</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E157" s="1">
+      <c r="D157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="2">
         <v>157</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="1">
+      <c r="D158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="2">
         <v>158</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E159" s="1">
+      <c r="D159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="2">
         <v>159</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1">
+      <c r="D160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E161" s="1">
+      <c r="D161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2">
         <v>161</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E162" s="1">
+      <c r="D162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="2">
         <v>162</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E163" s="1">
+      <c r="D163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="2">
         <v>163</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E164" s="1">
+      <c r="D164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="2">
         <v>164</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E165" s="1">
+      <c r="D165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="2">
         <v>165</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E166" s="1">
+      <c r="D166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="2">
         <v>166</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E167" s="1">
+      <c r="D167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="2">
         <v>167</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E168" s="1">
+      <c r="D168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="2">
         <v>168</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E169" s="1">
+      <c r="D169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="2">
         <v>169</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" s="1">
+      <c r="D170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="2">
         <v>170</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" s="1">
+      <c r="D171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="2">
         <v>171</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172" s="1">
+      <c r="D172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="2">
         <v>172</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" s="1">
+      <c r="D173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="2">
         <v>173</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E174" s="1">
+      <c r="D174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="2">
         <v>174</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E175" s="1">
+      <c r="D175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E176" s="1">
+      <c r="D176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="2">
         <v>176</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E177" s="1">
+      <c r="D177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" s="2">
         <v>177</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E178" s="1">
+      <c r="D178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" s="2">
         <v>178</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E179" s="1">
+      <c r="D179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" s="2">
         <v>179</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" s="1">
+      <c r="D180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E181" s="1">
+      <c r="D181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" s="2">
         <v>181</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" s="1">
+      <c r="D182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2">
         <v>182</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E183" s="1">
+      <c r="D183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="2">
         <v>183</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" s="1">
+      <c r="D184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="2">
         <v>184</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E185" s="1">
+      <c r="D185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" s="2">
         <v>185</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E186" s="1">
+      <c r="D186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" s="2">
         <v>186</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" s="1">
+      <c r="D187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" s="2">
         <v>187</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" s="1">
+      <c r="D188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="2">
         <v>188</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" s="1">
+      <c r="D189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" s="2">
         <v>189</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" s="1">
+      <c r="D190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="2">
         <v>190</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E191" s="1">
+      <c r="D191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" s="2">
         <v>191</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="1">
+      <c r="D192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="2">
         <v>192</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="1">
+      <c r="D193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="2">
         <v>193</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E194" s="1">
+      <c r="D194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="2">
         <v>194</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195" s="1">
+      <c r="D195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="1">
+      <c r="D196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="2">
         <v>196</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E197" s="1">
+      <c r="D197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" s="2">
         <v>197</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" s="1">
+      <c r="D198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" s="2">
         <v>198</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E199" s="1">
+      <c r="D199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" s="2">
         <v>199</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E200" s="1">
+      <c r="D200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E201" s="1">
+      <c r="D201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2">
         <v>201</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E202" s="1">
+      <c r="D202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" s="2">
         <v>202</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E203" s="1">
+      <c r="D203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" s="2">
         <v>203</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E204" s="1">
+      <c r="D204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E204" s="2">
         <v>204</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E205" s="1">
+      <c r="D205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" s="1">
+      <c r="D206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" s="2">
         <v>206</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="1">
+      <c r="D207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="2">
         <v>207</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" s="1">
+      <c r="D208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" s="2">
         <v>208</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" s="1">
+      <c r="D209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" s="2">
         <v>209</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="1">
+      <c r="D210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="2">
         <v>210</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" s="1">
+      <c r="D211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" s="2">
         <v>211</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E212" s="1">
+      <c r="D212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" s="2">
         <v>212</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="1">
+      <c r="D213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2">
         <v>213</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E214" s="1">
+      <c r="D214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" s="2">
         <v>214</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="1">
+      <c r="D215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="2">
         <v>215</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" s="1">
+      <c r="D216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" s="1">
+      <c r="D217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" s="2">
         <v>217</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" s="1">
+      <c r="D218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" s="2">
         <v>218</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219" s="1">
+      <c r="D219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" s="2">
         <v>219</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="1">
+      <c r="D220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="2">
         <v>220</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E221" s="1">
+      <c r="D221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" s="2">
         <v>221</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" s="1">
+      <c r="D222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="2">
         <v>222</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="1">
+      <c r="D223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2">
         <v>223</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" s="1">
+      <c r="D224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="2">
         <v>224</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E225" s="1">
+      <c r="D225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E225" s="2">
         <v>225</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E226" s="1">
+      <c r="D226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="2">
         <v>226</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E227" s="1">
+      <c r="D227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227" s="2">
         <v>227</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E228" s="1">
+      <c r="D228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E228" s="2">
         <v>228</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E229" s="1">
+      <c r="D229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="2">
         <v>229</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" s="1">
+      <c r="D230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2">
         <v>230</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E231" s="1">
+      <c r="D231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="2">
         <v>231</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E232" s="1">
+      <c r="D232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" s="2">
         <v>232</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" s="1">
+      <c r="D233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" s="2">
         <v>233</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E234" s="1">
+      <c r="D234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="2">
         <v>234</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" s="1">
+      <c r="D235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="2">
         <v>235</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" s="1">
+      <c r="D236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" s="2">
         <v>236</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" s="1">
+      <c r="D237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" s="2">
         <v>237</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" s="1">
+      <c r="D238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="2">
         <v>238</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239" s="1">
+      <c r="D239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" s="2">
         <v>239</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E240" s="1">
+      <c r="D240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" s="2">
         <v>240</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E241" s="1">
+      <c r="D241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E241" s="2">
         <v>241</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E242" s="1">
+      <c r="D242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="2">
         <v>242</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E243" s="1">
+      <c r="D243" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243" s="2">
         <v>243</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E244" s="1">
+      <c r="D244" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E244" s="2">
         <v>244</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E245" s="1">
+      <c r="D245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" s="2">
         <v>245</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E246" s="1">
+      <c r="D246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="2">
         <v>246</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E247" s="1">
+      <c r="D247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="2">
         <v>247</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E248" s="1">
+      <c r="D248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" s="2">
         <v>248</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E249" s="1">
+      <c r="D249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249" s="2">
         <v>249</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E250" s="1">
+      <c r="D250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E251" s="1">
+      <c r="D251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="2">
         <v>251</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E252" s="1">
+      <c r="D252" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E252" s="2">
         <v>252</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E253" s="1">
+      <c r="D253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="2">
         <v>253</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E254" s="1">
+      <c r="D254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" s="2">
         <v>254</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E255" s="1">
+      <c r="D255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" s="2">
         <v>255</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E256" s="1">
+      <c r="D256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E257" s="1">
+      <c r="D257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" s="2">
         <v>257</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E258" s="1">
+      <c r="D258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2">
         <v>258</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" s="1">
+      <c r="D259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" s="2">
         <v>259</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E260" s="1">
+      <c r="D260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="2">
         <v>260</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E261" s="1">
+      <c r="D261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="2">
         <v>261</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" s="1">
+      <c r="D262" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" s="2">
         <v>262</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E263" s="1">
+      <c r="D263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" s="2">
         <v>263</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" s="1">
+      <c r="D264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="2">
         <v>264</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="1">
+      <c r="D265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="2">
         <v>265</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="1">
+      <c r="D266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" s="2">
         <v>266</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E267" s="1">
+      <c r="D267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E267" s="2">
         <v>267</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E268" s="1">
+      <c r="D268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="2">
         <v>268</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E269" s="1">
+      <c r="D269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" s="2">
         <v>269</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -26,7 +26,7 @@
   <si>
     <t xml:space="preserve">Codenamed Puma by Inner Sphere forces who first engaged it, the Adder is a light Clan OmniMech that serves as a direct or an indirect fire-Zupport unit in most of its configurations. The ADR-Z only carries a pair of Society-design MRM 30s and the hard-mounted Flamer, leaving it vulnerable once the MRMs run dry.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t/>
@@ -54,7 +54,7 @@
   <si>
     <t xml:space="preserve">The Blood Asp Z is a Society configuration of the Smoke Jaguar's terrifying assault mech. The Z configuration mounts a pair of massive Society Heavy Gauss Rifles backed up with a pair of Medium Heavy Lasers. Like most Society designs, the Blood Asp features a series of electronics upgrades including a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_blood_asp_BAS-Z.StockRole</t>
@@ -82,7 +82,7 @@
   <si>
     <t xml:space="preserve">Dubbed the Commando IIC, this upgrade used newer technologies to outperform its venerable cousin. With the proliferation of OmniMechs, most Commando IICs were relegated to second line status which made them prime candidates for Society cabals to quietly pilfer into their own ranks. The Z variant mounts a pair of SRM4s, a pair of Medium Supra Lasers, and a Streak NARC launcher.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_commando_iic_COM-IIC-Z.StockRole</t>
@@ -110,7 +110,7 @@
   <si>
     <t xml:space="preserve">Despite being designed by the Star League before the Exodus, the Dragon Fire was not seen in the Inner Sphere until the 3050s. However, an updated version of the original Star League design was developed as proposed to Clan leadership during the Golden Century but was never adopted in favor of Omnimechs designs. Not willing to give up on the design, several members of the Society continued redesigning the Dragon Fire in secret. By the Wars of Reaving, the Dragon Fire IIC Omnimech is vastly more advanced than it's Inner Sphere cousin.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_dragonfire_iic_DGR-IIC-A.StockRole</t>
@@ -159,7 +159,7 @@
   <si>
     <t xml:space="preserve">After the Exodus, Pentagon Wars, and countless trials, the ancient Emperor design was well worn and incredibly out-of-date. Rather than spending the time to redesign the Emperor into a IIC version like many other SLDF designs, Society engineers simply designed the 6Z around a new Endo-Steel frame and a Clan-Spec XL engine. The 6Z employs a Light Ultra Gauss Rifle and ER Large Laser in each arm and an Arrow V system in the right torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Cooling Jacket - Laser&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.3&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.3&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_emperor_EMP-6Z.StockRole</t>
@@ -187,7 +187,7 @@
   <si>
     <t xml:space="preserve">The Clans upgraded the venerable Griffin design until the BattleMech now known as the Griffin IIC emerged. The Z variant is a Society refit that packs a pair of Light TAGs, a pair of Medium Supra Lasers, an iATM9, and a Streak NARC.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_griffin_iic_GRF-IIC-Z.StockRole</t>
@@ -215,7 +215,7 @@
   <si>
     <t xml:space="preserve">The Clans upgraded the venerable Griffin design until the BattleMech now known as the Griffin IIC emerged. The ZA variant is a Society refit that packs a pair of Tesla Rifles, pair of Medium Supra Lasers, and a Society MRM30.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_griffin_iic_GRF-IIC-ZA.StockRole</t>
@@ -237,7 +237,7 @@
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant sports a Sniper Artillery Piece and a Society MRM60.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_helepolis_iic_HEP-IIC-Z.StockRole</t>
@@ -265,7 +265,7 @@
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_helepolis_iic_HEP-IIC-ZA.StockRole</t>
@@ -287,7 +287,7 @@
   <si>
     <t xml:space="preserve">The Highlander IIC Z is a Society prototype developed as an Assault test-bed for the new Advanced Torso-Mount Cockpit. The HGN-IIC Z keeps the iconic Gauss Rifle and Jump Jets of its predecessors but sports a pair of Society MRM30s and a trio of Small Supra Lasers as its remaining armament.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Reinforced Legs&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.3&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.3&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_highlander_iic_HGN-IIC-Z.StockRole</t>
@@ -315,7 +315,7 @@
   <si>
     <t xml:space="preserve">null
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.41&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.41&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hyperion_HYP-A.StockRole</t>
@@ -364,7 +364,7 @@
   <si>
     <t xml:space="preserve">Considered a by-gone design by the time of the Reunification Wars, the Icarus II rarely crossed paths with the Star League Defense Force and was not even much of an afterthought after the Exodus to Clan Space. This fairly unremarkable history made the shock of the Icarus IIC's appearance that much more shocking. This Omni-Mech redesign was proposed to both Jade Falcon and Steel Viper leadership who rejected it outright. However, the design survived and evolved thanks to a few Society cells. 
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_icarus_iic_ICR-IIC-A.StockRole</t>
@@ -428,7 +428,7 @@
   <si>
     <t xml:space="preserve">As a Second-Line mech, the Incubus was a prime candidate for Society engineers to refit into a light mech capable of being integrated into Society formations easily. The Incubus Z drops the Large Pulse Laser for a Large Supra Laser and drops the ER Medium for a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.13&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_incubus_Vixen-Z.StockRole</t>
@@ -456,7 +456,7 @@
   <si>
     <t xml:space="preserve">A Light Clan OmniMech, the 30 ton Kit Fox was introduced in 2890 by Clan Cloud Cobra. Favouring a mix of fire power and armor over speed, the Kit Fox is powered by a 180 XL Engine and features a mix of Endo Steel and Ferro Fibrous; giving it 16 tons of pod space. The Kit Fox Z is armed with a Large Supra Laser and an ER Small Laser. A pair of Laser AMS, a Streak Narc and a TAG round out the Society variant.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_kit_fox_KF-Z.StockRole</t>
@@ -484,7 +484,7 @@
   <si>
     <t xml:space="preserve">One of the best known BattleMechs in the Inner Sphere for its low production and operation costs, the Locust is also well known in the Clans. In 2832, Clan Mongoose unleashed an upgraded version of the venerable 'Mech on the Clans, known as the Locust IIC. The Z variant is a Society refit that replaces the engine with a 200SL engine and replaces the weapons payload with 6 Small Supra Lasers and a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_locust_iic_LCT-IIC-Z.StockRole</t>
@@ -509,7 +509,7 @@
   <si>
     <t xml:space="preserve">Built on the Marauder IIC workhorse chassis, the Z variant eschews the ERPPCs for a Society Heavy Gauss Rifle, a quartet of Medium Supra Lasers, a prototype supercharged light 340SL engine and four Jump Jets for mobility.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_marauder_iic_MAD-IIC-Z.StockRole</t>
@@ -537,7 +537,7 @@
   <si>
     <t xml:space="preserve">A Society refit of the Medusa 3, the Z drops the UAC20 and jump jets in favor of a Society Heavy Gauss Rifle.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_medusa_MED-Z.StockRole</t>
@@ -565,7 +565,7 @@
   <si>
     <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z an effective skirmisher.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.07&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.07&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_mistlynx_MLX-Z-A.StockRole</t>
@@ -593,7 +593,7 @@
   <si>
     <t xml:space="preserve">The Rabid Coyote was designed by scientists from Clan Coyote to be a complement to other, slower BattleMechs. First deployed in 3066, the 'Mech was deployed in an effort to stave off the slow decline of the previous decades that had befallen the Clan that created the OmniMech. With an eye towards cost, the Rabid Coyote employs a standard fusion engine, though it does make use of an Endo Steel internal structure and eight and a half tons of Ferro-Fibrous armor. Curiously, as the 'Mech is intended to be a bodyguard for larger 'Mechs like the Savage Coyote, front-line warriors spurn the design because they do not wish to be seen merely as ''support''.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Experimental TC&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rabid_coyote_RB-Z.StockRole</t>
@@ -618,7 +618,7 @@
   <si>
     <t xml:space="preserve">The Rifleman IIC S is a Society refit designed to provide direct fire support for Society mech formations. The Z variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_iic_RFL-IIC-Z.StockRole</t>
@@ -643,7 +643,7 @@
   <si>
     <t xml:space="preserve">A Society configuration of the relatively young Shadow Cat Omni-Mech, the Z config replaces the Gauss Rifle with a Society MRM60 and the ER Medium Lasers with Heavy Medium Lasers. Where possible, Society engineers also incluided additional or upgraded systems and a Nova CEWS to provide superior EW capabilities.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_shadow_cat_SHC-Z.StockRole</t>
@@ -665,7 +665,7 @@
   <si>
     <t xml:space="preserve">The Shadowhawk IIC Z has very little in common with its other SHD-IIC cousins thanks to extensive modifications by Society Engineers. Designed to be a devastating guerilla warefare mech, the SHD-IIC S features a Chameleon Light Polarization Shield, Nova CEWS, Advanced Torso Mounted Cockpit, a Snub-Nosed PPC, and a pair of Medium Heavy Lasers. Most S variants also carried a pair of T.A.E. dispensors for area and asset denial operations.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_shadow_hawk_iic_SHD-IIC-Z.StockRole</t>
@@ -687,7 +687,7 @@
   <si>
     <t xml:space="preserve">The Sun Spider never fell out of favor amongst Society engineers and the Z variant only reinforces that fact. A close-cousin to the Prime variant, the Z features an Advanced Torso Mount Cockpit while changing out the UAC10 for a Light Ultra Gauss Rifle, the ER Large Laser for a Large Supra Laser, and the Streak SRMs for iATMs.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_sun_spider_SNS-Z.StockRole</t>
@@ -715,7 +715,7 @@
   <si>
     <t xml:space="preserve">The Z-A is an advanced Society configuration that utilizes a pair of Light Ultra Gauss Rifles and a pair of iATM3s in addition to the Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-Z-A.StockRole</t>
@@ -743,7 +743,7 @@
   <si>
     <t xml:space="preserve">The Z-B is an advanced Society configuration that utilizes a pair of Society MRM45s, a pair of Medium Supra Lasers, and a pair of Small Supra Lasers.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-Z-B.StockRole</t>
@@ -768,7 +768,7 @@
   <si>
     <t xml:space="preserve">Considered lowly, even for garrison troops, the UrbanMech IIC was thought to be under-appreciated until Clan leadership found that several Society cells were siphoning them into their ranks. The UM-IIC-Z variant is a deadly city combatant whose Heavy Plasma Cannon can vaporize swathes of infantry, chunks of buildings, and vast amounts of enemy armor.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: 360° Torso Twist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.13&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_urbanmech_iic_UM-IIC-Z.StockRole</t>
@@ -796,7 +796,7 @@
   <si>
     <t xml:space="preserve">Despite the Society's distaste for the Warrior Caste's insistance on adhering to zellbrigen, they did see value in attempting to best these warriors in one-on-one combat. The Vapor Eagle Z variant utilizes a Snub-Nosed PPC and a pair of MRM15s to brutalize close-combatants and relies on its speed, Nova CEWS, and torso-mounted cockpit for survivability.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vapor_eagle_GWK-Z.StockRole</t>
@@ -824,7 +824,7 @@
   <si>
     <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-Z was a small production variantion of these forsaken designs; it featuresa UAC/20 supported by an array of Society prototypes and electronics all focused on close-range brawling.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.28&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_victor_iic_VTR-IIC-Z.StockRole</t>
@@ -852,7 +852,7 @@
   <si>
     <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-Z was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.28&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_victor_iic_VTR-IIC-ZA.StockRole</t>
@@ -880,7 +880,7 @@
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The Z is a Society variant that sports a pair of experimental Heavy Plasma Cannons capable of slagging most anything found on the battlefield.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.28&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warhammer_iic_WMR-IIC-Z.StockRole</t>
@@ -905,7 +905,7 @@
   <si>
     <t xml:space="preserve">The Z configuration mounts a pair of massive Society Heavy Gauss Rifles backed up with a pair of Medium Heavy Lasers. Like most Society designs, the Blood Asp features a series of electronics upgrades including a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_commando_iic_COM-IIC-Z.Description.Details</t>
@@ -939,7 +939,7 @@
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_helepolis_iic_HEP-IIC-ZA.Description.Details</t>
@@ -952,7 +952,7 @@
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant sports a Sniper Artillery Piece and a Society MRM60..
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_highlander_iic_HGN-IIC-Z.Description.Details</t>
@@ -995,7 +995,7 @@
   <si>
     <t xml:space="preserve">As a Second-Line mech, the Incubus was a prime candidate for Society engineers to refit into a light mech capable of being integrated into Society formations easily. The Incubus 1S drops the Large Pulse Laser for a Large Supra Laser and drops the ER Medium for a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.13&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_kit_fox_KF-Z.Description.Details</t>
@@ -1020,7 +1020,7 @@
   <si>
     <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z-A an effective skirmisher.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.07&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.07&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_rabid_coyote_RB-Z.Description.Details</t>
@@ -1036,7 +1036,7 @@
   <si>
     <t xml:space="preserve">The Rifleman IIC Z is a Society refit designed to provide direct fire support for Society mech formations. The S variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_shadow_cat_SHC-Z.Description.Details</t>
@@ -1073,7 +1073,7 @@
   <si>
     <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-ZA was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.28&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_warhammer_iic_WMR-IIC-Z.Description.Details</t>
@@ -2403,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
   <si>
     <t>chassisdef_adder_ADR-Z.Description.Details</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>Direct-Fire Support</t>
+  </si>
+  <si>
+    <t>Поддержка с открытых позиций</t>
   </si>
   <si>
     <t>chassisdef_rifleman_iic_RFL-IIC-Z.YangsThoughts</t>
@@ -2069,6 +2072,9 @@
   </si>
   <si>
     <t>BLINDED</t>
+  </si>
+  <si>
+    <t>ОСЛЕПЛЁН</t>
   </si>
 </sst>
 </file>
@@ -2403,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3857,7 +3863,7 @@
         <v>176</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
@@ -3868,13 +3874,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -3885,13 +3891,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>161</v>
@@ -3919,13 +3925,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -3936,13 +3942,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3953,7 +3959,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>20</v>
@@ -3970,13 +3976,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -3987,13 +3993,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -4004,13 +4010,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -4021,13 +4027,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -4038,13 +4044,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -4055,13 +4061,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -4072,13 +4078,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -4089,13 +4095,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -4106,13 +4112,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -4123,13 +4129,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
@@ -4140,13 +4146,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -4157,13 +4163,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -4174,13 +4180,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -4191,13 +4197,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4208,13 +4214,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -4225,13 +4231,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -4242,13 +4248,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -4259,13 +4265,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -4276,13 +4282,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -4293,13 +4299,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -4310,13 +4316,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4327,13 +4333,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4344,13 +4350,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4361,13 +4367,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -4378,13 +4384,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -4395,7 +4401,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
@@ -4412,13 +4418,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4429,7 +4435,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
@@ -4446,7 +4452,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>25</v>
@@ -4463,7 +4469,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>25</v>
@@ -4480,7 +4486,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>25</v>
@@ -4497,7 +4503,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>40</v>
@@ -4514,7 +4520,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>48</v>
@@ -4531,7 +4537,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>56</v>
@@ -4548,13 +4554,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -4565,13 +4571,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4582,7 +4588,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>76</v>
@@ -4599,7 +4605,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>84</v>
@@ -4616,7 +4622,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>84</v>
@@ -4633,7 +4639,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>84</v>
@@ -4650,7 +4656,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>84</v>
@@ -4667,7 +4673,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>99</v>
@@ -4684,7 +4690,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>99</v>
@@ -4701,7 +4707,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>99</v>
@@ -4718,7 +4724,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>99</v>
@@ -4735,7 +4741,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>99</v>
@@ -4752,13 +4758,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -4769,7 +4775,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>127</v>
@@ -4786,7 +4792,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>135</v>
@@ -4803,7 +4809,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>142</v>
@@ -4820,7 +4826,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>150</v>
@@ -4837,13 +4843,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -4854,7 +4860,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>166</v>
@@ -4871,13 +4877,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
@@ -4888,13 +4894,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -4905,13 +4911,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -4922,13 +4928,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -4939,13 +4945,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -4956,13 +4962,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -4973,13 +4979,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -4990,13 +4996,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -5007,13 +5013,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -5024,13 +5030,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -5041,13 +5047,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -5058,13 +5064,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>3</v>
@@ -5075,13 +5081,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -5092,13 +5098,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -5109,13 +5115,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -5126,13 +5132,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -5143,13 +5149,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -5160,13 +5166,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -5177,13 +5183,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -5194,13 +5200,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -5211,13 +5217,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -5228,13 +5234,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -5245,13 +5251,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -5262,13 +5268,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -5279,13 +5285,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -5296,13 +5302,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -5313,13 +5319,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -5330,13 +5336,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -5347,13 +5353,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -5364,13 +5370,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -5381,13 +5387,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -5398,13 +5404,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -5415,13 +5421,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -5432,13 +5438,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -5449,13 +5455,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -5466,13 +5472,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -5483,13 +5489,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -5500,13 +5506,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -5517,13 +5523,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -5534,13 +5540,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -5551,13 +5557,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -5568,13 +5574,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -5585,13 +5591,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -5602,13 +5608,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -5619,13 +5625,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -5636,13 +5642,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -5653,13 +5659,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -5670,13 +5676,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -5687,13 +5693,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -5704,13 +5710,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -5721,13 +5727,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -5738,13 +5744,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -5755,13 +5761,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -5772,13 +5778,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -5789,13 +5795,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -5806,13 +5812,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -5823,13 +5829,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -5840,13 +5846,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -5857,13 +5863,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -5874,13 +5880,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -5891,13 +5897,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -5908,13 +5914,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C207" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -5925,13 +5931,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -5942,13 +5948,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -5959,13 +5965,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C210" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -5976,13 +5982,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -5993,13 +5999,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -6010,13 +6016,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C213" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -6027,13 +6033,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -6044,13 +6050,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -6061,13 +6067,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="C216" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -6078,13 +6084,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -6095,13 +6101,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -6112,13 +6118,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="C219" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -6129,13 +6135,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -6146,13 +6152,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -6163,13 +6169,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="C222" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -6180,13 +6186,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -6197,13 +6203,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -6214,13 +6220,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -6231,13 +6237,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -6248,13 +6254,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C227" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -6265,13 +6271,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -6282,13 +6288,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -6299,13 +6305,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C230" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -6316,13 +6322,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -6333,13 +6339,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -6350,13 +6356,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="C233" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -6367,13 +6373,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -6384,13 +6390,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -6401,13 +6407,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="C236" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -6418,13 +6424,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -6435,13 +6441,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -6452,13 +6458,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C239" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -6469,13 +6475,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -6486,13 +6492,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -6503,13 +6509,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -6520,13 +6526,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -6537,13 +6543,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -6554,13 +6560,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>3</v>
@@ -6571,13 +6577,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -6588,13 +6594,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -6605,13 +6611,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -6622,13 +6628,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -6639,13 +6645,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -6656,13 +6662,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -6673,13 +6679,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -6690,13 +6696,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -6707,13 +6713,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -6724,13 +6730,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -6741,13 +6747,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -6758,13 +6764,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -6775,13 +6781,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -6792,13 +6798,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -6809,13 +6815,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
@@ -6826,13 +6832,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -6843,13 +6849,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -6860,13 +6866,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>3</v>
@@ -6877,13 +6883,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -6894,13 +6900,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -6911,13 +6917,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -6928,13 +6934,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="C267" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -6945,13 +6951,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -6962,13 +6968,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -236,7 +236,7 @@
   </si>
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant sports a Sniper Artillery Piece and a Society MRM60.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -264,7 +264,7 @@
   </si>
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -427,7 +427,7 @@
   </si>
   <si>
     <t xml:space="preserve">As a Second-Line mech, the Incubus was a prime candidate for Society engineers to refit into a light mech capable of being integrated into Society formations easily. The Incubus Z drops the Large Pulse Laser for a Large Supra Laser and drops the ER Medium for a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -798,7 +798,7 @@
   </si>
   <si>
     <t xml:space="preserve">Despite the Society's distaste for the Warrior Caste's insistance on adhering to zellbrigen, they did see value in attempting to best these warriors in one-on-one combat. The Vapor Eagle Z variant utilizes a Snub-Nosed PPC and a pair of MRM15s to brutalize close-combatants and relies on its speed, Nova CEWS, and torso-mounted cockpit for survivability.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -941,7 +941,7 @@
   </si>
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -954,7 +954,7 @@
   </si>
   <si>
     <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant sports a Sniper Artillery Piece and a Society MRM60..
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -997,7 +997,7 @@
   </si>
   <si>
     <t xml:space="preserve">As a Second-Line mech, the Incubus was a prime candidate for Society engineers to refit into a light mech capable of being integrated into Society formations easily. The Incubus 1S drops the Large Pulse Laser for a Large Supra Laser and drops the ER Medium for a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1102,18 +1102,18 @@
   </si>
   <si>
     <t xml:space="preserve">The Ares Medium Tank is designed to stand off and take down its enemies at long range. Its top speed of 86 km/h is fast for a fire support combat vehicle, so it is often paired with armored personnel carriers to support infantry. Four and a half tons of Ferro-Fibrous armor protect the vehicle and its crew; this somewhat meager amount encourages Ares crews to stay out of range of most return fire. The main weapon is an ER Large Laser mounted in the turret. Mounted in the front is a Society MRM45 launcher equipped with Apollo ammunition. 
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 116 20
-&lt;b&gt;Left&lt;/b&gt; 76 20
-&lt;b&gt;Right&lt;/b&gt; 76 20
-&lt;b&gt;Rear&lt;/b&gt; 70 20
-&lt;b&gt;Turret&lt;/b&gt; 95 20
-&lt;b&gt;Total&lt;/b&gt; 433 100</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 116 20
+&lt;b&gt;Левая&lt;/b&gt; 76 20
+&lt;b&gt;Правая&lt;/b&gt; 76 20
+&lt;b&gt;Задняя&lt;/b&gt; 70 20
+&lt;b&gt;Башня&lt;/b&gt; 95 20
+&lt;b&gt;Итого&lt;/b&gt; 433 100</t>
   </si>
   <si>
     <t>vehiclechassisdef_ARES_Society.YangsThoughts</t>
@@ -1145,18 +1145,18 @@
   </si>
   <si>
     <t xml:space="preserve">The Ares Medium Tank is designed to stand off and take down its enemies at long range. Its top speed of 86 km/h is fast for a fire support combat vehicle, so it is often paired with armored personnel carriers to support infantry. Four and a half tons of Ferro-Fibrous armor protect the vehicle and its crew; this somewhat meager amount encourages Ares crews to stay out of range of most return fire. The main weapon is an ER Large Laser mounted in the turret. Mounted in the front is a Society MRM45 launcher equipped with Apollo ammunition. 
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 141 20
-&lt;b&gt;Left&lt;/b&gt; 76 20
-&lt;b&gt;Right&lt;/b&gt; 76 20
-&lt;b&gt;Rear&lt;/b&gt; 70 20
-&lt;b&gt;Turret&lt;/b&gt; 115 20
-&lt;b&gt;Total&lt;/b&gt; 478 100</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 141 20
+&lt;b&gt;Левая&lt;/b&gt; 76 20
+&lt;b&gt;Правая&lt;/b&gt; 76 20
+&lt;b&gt;Задняя&lt;/b&gt; 70 20
+&lt;b&gt;Башня&lt;/b&gt; 115 20
+&lt;b&gt;Итого&lt;/b&gt; 478 100</t>
   </si>
   <si>
     <t>vehiclechassisdef_ARES_Society_II.YangsThoughts</t>
@@ -1181,17 +1181,17 @@
   </si>
   <si>
     <t xml:space="preserve">A direct fire, support platform; the Arrow V Carrier is the Society's pre-eminent artillery and anti-air platform. A simple design, the carrier is an updated version of the various carrier platforms used by both the Clans and the Inner Sphere down the centuries. Swapping the traditional ICE for a Standard Fusion Engine allowed the designers to up-armor the chassis. A Guardian ECM and high powered sensor array serves to provide further defense and detection capabilities. The remaining weight is dedicated to a pair of immense Arrow V's and 9 tons of ammo in a CASE protected munitions bay.
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 110 30
-&lt;b&gt;Left&lt;/b&gt; 110 30
-&lt;b&gt;Right&lt;/b&gt; 110 30
-&lt;b&gt;Rear&lt;/b&gt; 110 30
-&lt;b&gt;Total&lt;/b&gt; 440 120</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 110 30
+&lt;b&gt;Левая&lt;/b&gt; 110 30
+&lt;b&gt;Правая&lt;/b&gt; 110 30
+&lt;b&gt;Задняя&lt;/b&gt; 110 30
+&lt;b&gt;Итого&lt;/b&gt; 440 120</t>
   </si>
   <si>
     <t>vehiclechassisdef_CARRIER_ARROWV_SOCIETY.YangsThoughts</t>
@@ -1217,18 +1217,18 @@
   </si>
   <si>
     <t xml:space="preserve">A more advanced version of the standard (c)LRM Carrier, the ATM Carrier swaps the standard LRM’s for more advanced ATM’s. 
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 169 30
-&lt;b&gt;Left&lt;/b&gt; 110 30
-&lt;b&gt;Right&lt;/b&gt; 110 30
-&lt;b&gt;Rear&lt;/b&gt; 90 30
-&lt;b&gt;Turret&lt;/b&gt; 138 30
-&lt;b&gt;Total&lt;/b&gt; 617 150</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 169 30
+&lt;b&gt;Левая&lt;/b&gt; 110 30
+&lt;b&gt;Правая&lt;/b&gt; 110 30
+&lt;b&gt;Задняя&lt;/b&gt; 90 30
+&lt;b&gt;Башня&lt;/b&gt; 138 30
+&lt;b&gt;Итого&lt;/b&gt; 617 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_CARRIER_iATM_CLAN.YangsThoughts</t>
@@ -1254,18 +1254,18 @@
   </si>
   <si>
     <t xml:space="preserve">A more advanced version of the standard (c)LRM Carrier, the ATM Carrier swaps the standard LRM’s for more advanced ATM’s. 
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 397 30
-&lt;b&gt;Left&lt;/b&gt; 200 30
-&lt;b&gt;Right&lt;/b&gt; 200 30
-&lt;b&gt;Rear&lt;/b&gt; 135 30
-&lt;b&gt;Turret&lt;/b&gt; 318 30
-&lt;b&gt;Total&lt;/b&gt; 1250 150</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 397 30
+&lt;b&gt;Левая&lt;/b&gt; 200 30
+&lt;b&gt;Правая&lt;/b&gt; 200 30
+&lt;b&gt;Задняя&lt;/b&gt; 135 30
+&lt;b&gt;Башня&lt;/b&gt; 318 30
+&lt;b&gt;Итого&lt;/b&gt; 1250 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_CARRIER_iHML_CLAN.YangsThoughts</t>
@@ -1291,18 +1291,18 @@
   </si>
   <si>
     <t xml:space="preserve">Inspired by an unconventional Kuritan variant of the venerable Demolisher this tank mounts a pair of massive Society MRM60 launchers, delivering a withering hail of fire that few units can shrug off. A C3 Slave allows it to take advantage of targeting data provided by other units.
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 260 40
-&lt;b&gt;Left&lt;/b&gt; 200 40
-&lt;b&gt;Right&lt;/b&gt; 200 40
-&lt;b&gt;Rear&lt;/b&gt; 91 40
-&lt;b&gt;Turret&lt;/b&gt; 220 40
-&lt;b&gt;Total&lt;/b&gt; 971 200</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 260 40
+&lt;b&gt;Левая&lt;/b&gt; 200 40
+&lt;b&gt;Правая&lt;/b&gt; 200 40
+&lt;b&gt;Задняя&lt;/b&gt; 91 40
+&lt;b&gt;Башня&lt;/b&gt; 220 40
+&lt;b&gt;Итого&lt;/b&gt; 971 200</t>
   </si>
   <si>
     <t>vehiclechassisdef_DEMOLISHER_MRM_Society.YangsThoughts</t>
@@ -1326,18 +1326,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A fast unit, the Light VTOL is not designed for protracted combat. Carrying an array of ranged weapons, the Light VTOL is designed to support allied units from range.
-&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: Ignores Terrain, slow in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 172 15
-&lt;b&gt;Left&lt;/b&gt; 90 15
-&lt;b&gt;Right&lt;/b&gt; 90 15
-&lt;b&gt;Rear&lt;/b&gt; 40 15
-&lt;b&gt;Total&lt;/b&gt; 402 75</t>
+    <t xml:space="preserve">Легкий VTOL очень быстр, но он не предназначен для длительного боя. Вообружённый дальнобойным оружием, лёгкий VTOL создан для поддержки союзных войск на расстоянии.
+&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: игнорирует рельеф местности, медленный в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 172 15
+&lt;b&gt;Левая&lt;/b&gt; 90 15
+&lt;b&gt;Правая&lt;/b&gt; 90 15
+&lt;b&gt;Задняя&lt;/b&gt; 40 15
+&lt;b&gt;Итого&lt;/b&gt; 402 75</t>
   </si>
   <si>
     <t>vehiclechassisdef_Donar_Society_ERL.YangsThoughts</t>
@@ -1361,18 +1361,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A fast unit, the Light VTOL is not designed for protracted combat. Carrying an array of ranged weapons, the Light VTOL is designed to support allied units from range.
-&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: Ignores Terrain, slow in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 177 15
-&lt;b&gt;Left&lt;/b&gt; 75 15
-&lt;b&gt;Right&lt;/b&gt; 75 15
-&lt;b&gt;Rear&lt;/b&gt; 65 15
-&lt;b&gt;Total&lt;/b&gt; 402 75</t>
+    <t xml:space="preserve">Легкий VTOL очень быстр, но он не предназначен для длительного боя. Вообружённый дальнобойным оружием, лёгкий VTOL создан для поддержки союзных войск на расстоянии.
+&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: игнорирует рельеф местности, медленный в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 177 15
+&lt;b&gt;Левая&lt;/b&gt; 75 15
+&lt;b&gt;Правая&lt;/b&gt; 75 15
+&lt;b&gt;Задняя&lt;/b&gt; 65 15
+&lt;b&gt;Итого&lt;/b&gt; 402 75</t>
   </si>
   <si>
     <t>vehiclechassisdef_Donar_Society_IATM.YangsThoughts</t>
@@ -1404,18 +1404,18 @@
   </si>
   <si>
     <t xml:space="preserve">A Society configuration apparently based on the Epona B, the Epona Z is a showcase for the Society's new HVAC/10. An iATM-6 with provides extra fire power.
-&lt;b&gt;&lt;color=#ffcc00&gt;Hover: Fast on open ground and water, slow in rough terrain, not very agile.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 121 25
-&lt;b&gt;Left&lt;/b&gt; 93 25
-&lt;b&gt;Right&lt;/b&gt; 93 25
-&lt;b&gt;Rear&lt;/b&gt; 80 25
-&lt;b&gt;Turret&lt;/b&gt; 95 25
-&lt;b&gt;Total&lt;/b&gt; 482 125</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Воздушная подушка: быстрый на открытых участках и воде, медленный на пересеченной местности, не очень маневренный.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 121 25
+&lt;b&gt;Левая&lt;/b&gt; 93 25
+&lt;b&gt;Правая&lt;/b&gt; 93 25
+&lt;b&gt;Задняя&lt;/b&gt; 80 25
+&lt;b&gt;Башня&lt;/b&gt; 95 25
+&lt;b&gt;Итого&lt;/b&gt; 482 125</t>
   </si>
   <si>
     <t>vehiclechassisdef_EPONA-Z_CLAN_RT.YangsThoughts</t>
@@ -1441,18 +1441,18 @@
   </si>
   <si>
     <t xml:space="preserve">The second Society configuration seen, the Epona Z-A is apparently inspired by the Epona A. 2 iATM-9's make up the vehicles weapons, with a 6 ton ammo bin providing a wide variety of munitions. A TAG is added, to allow the tank to function as a scout/spotter for allied artillery.
-&lt;b&gt;&lt;color=#ffcc00&gt;Hover: Fast on open ground and water, slow in rough terrain, not very agile.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 121 25
-&lt;b&gt;Left&lt;/b&gt; 93 25
-&lt;b&gt;Right&lt;/b&gt; 93 25
-&lt;b&gt;Rear&lt;/b&gt; 80 25
-&lt;b&gt;Turret&lt;/b&gt; 95 25
-&lt;b&gt;Total&lt;/b&gt; 482 125</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Воздушная подушка: быстрый на открытых участках и воде, медленный на пересеченной местности, не очень маневренный.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 121 25
+&lt;b&gt;Левая&lt;/b&gt; 93 25
+&lt;b&gt;Правая&lt;/b&gt; 93 25
+&lt;b&gt;Задняя&lt;/b&gt; 80 25
+&lt;b&gt;Башня&lt;/b&gt; 95 25
+&lt;b&gt;Итого&lt;/b&gt; 482 125</t>
   </si>
   <si>
     <t>vehiclechassisdef_EPONA-ZA_CLAN_RT.YangsThoughts</t>
@@ -1476,18 +1476,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A fast unit, the Light VTOL is not designed for protracted combat. Carrying an array of ranged weapons, the Light VTOL is designed to support allied units from range.
-&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: Ignores Terrain, slow in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Glazed (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 93 15
-&lt;b&gt;Left&lt;/b&gt; 60 15
-&lt;b&gt;Right&lt;/b&gt; 60 15
-&lt;b&gt;Rear&lt;/b&gt; 45 15
-&lt;b&gt;Total&lt;/b&gt; 268 75</t>
+    <t xml:space="preserve">Легкий VTOL очень быстр, но он не предназначен для длительного боя. Вообружённый дальнобойным оружием, лёгкий VTOL создан для поддержки союзных войск на расстоянии.
+&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: игнорирует рельеф местности, медленный в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Glazed (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 93 15
+&lt;b&gt;Левая&lt;/b&gt; 60 15
+&lt;b&gt;Правая&lt;/b&gt; 60 15
+&lt;b&gt;Задняя&lt;/b&gt; 45 15
+&lt;b&gt;Итого&lt;/b&gt; 268 75</t>
   </si>
   <si>
     <t>vehiclechassisdef_HawkMoth_Society_LGauss.YangsThoughts</t>
@@ -1512,19 +1512,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A monster of a unit, these heavily armed vehicles are the epitome of the Tank. Line breakers and fire support platforms, these are usually found in the front of an attack. Carrying an array of ranged weapons, the Assault Tank is designed to smash targets at range.
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 2/3 Hex: 60/90 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 262 50
-&lt;b&gt;Left&lt;/b&gt; 215 50
-&lt;b&gt;Right&lt;/b&gt; 215 50
-&lt;b&gt;Rear&lt;/b&gt; 185 50
-&lt;b&gt;Turret&lt;/b&gt; 250 50
-&lt;b&gt;Total&lt;/b&gt; 1127 250</t>
+    <t xml:space="preserve">Эти тяжеловооруженные машины просто монстры, олицетворение понятия танк. Действующие как огневая поддержка они способны класть противников штабелями и обычно встречаются на линии атаки. Carrying an array of ranged weapons, the Assault Tank is designed to smash targets at range.
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 2/3 Hex: 60/90 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 262 50
+&lt;b&gt;Левая&lt;/b&gt; 215 50
+&lt;b&gt;Правая&lt;/b&gt; 215 50
+&lt;b&gt;Задняя&lt;/b&gt; 185 50
+&lt;b&gt;Башня&lt;/b&gt; 250 50
+&lt;b&gt;Итого&lt;/b&gt; 1127 250</t>
   </si>
   <si>
     <t>vehiclechassisdef_MARS_iATM_CLAN.YangsThoughts</t>
@@ -1549,19 +1549,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">APCs are not fighting vehicles, their main function is to transport infantry squads from one battle to another. However, many APC variants sacrifice troop capacity to mount significant weaponry.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Limited Amphibious
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 168 20
-&lt;b&gt;Left&lt;/b&gt; 120 20
-&lt;b&gt;Right&lt;/b&gt; 120 20
-&lt;b&gt;Rear&lt;/b&gt; 90 20
-&lt;b&gt;Turret&lt;/b&gt; 130 20
-&lt;b&gt;Total&lt;/b&gt; 628 100</t>
+    <t xml:space="preserve">БТР не являются боевыми машинами, поскольку их основная функция - перевозить отряды пехоты из одного боя в другой. Однако многие варианты БТР жертвуют пассажирскими местами ради большего вооружения.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Limited Amphibious
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 168 20
+&lt;b&gt;Левая&lt;/b&gt; 120 20
+&lt;b&gt;Правая&lt;/b&gt; 120 20
+&lt;b&gt;Задняя&lt;/b&gt; 90 20
+&lt;b&gt;Башня&lt;/b&gt; 130 20
+&lt;b&gt;Итого&lt;/b&gt; 628 100</t>
   </si>
   <si>
     <t>vehiclechassisdef_POLEMOS_SOCIETY.YangsThoughts</t>
@@ -1585,18 +1585,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fast and versatile, the Light Tank is poorly suited to direct combat but has a variety of other uses. Intended as a scout or vanguard unit, the Light Tank is constantly on the move, probing ahead of the rest of the troops.
-&lt;b&gt;&lt;color=#ffcc00&gt;Hover: Fast on open ground and water, slow in rough terrain, not very agile.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;ICE: Air breathing Combustion Engine. This unit can not deploy in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Light Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 150 20
-&lt;b&gt;Left&lt;/b&gt; 75 20
-&lt;b&gt;Right&lt;/b&gt; 75 20
-&lt;b&gt;Rear&lt;/b&gt; 60 20
-&lt;b&gt;Total&lt;/b&gt; 360 80</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Предназначенный для разведки, легкий танк постоянно в движении, опережая остальные войска.
+&lt;b&gt;&lt;color=#ffcc00&gt;Воздушная подушка: быстрый на открытых участках и воде, медленный на пересеченной местности, не очень маневренный.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;ДВС: Атмосферный двигатель внутреннего сгорания. Эта машина не может эксплуатироваться в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Light Ferro
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 150 20
+&lt;b&gt;Левая&lt;/b&gt; 75 20
+&lt;b&gt;Правая&lt;/b&gt; 75 20
+&lt;b&gt;Задняя&lt;/b&gt; 60 20
+&lt;b&gt;Итого&lt;/b&gt; 360 80</t>
   </si>
   <si>
     <t>vehiclechassisdef_SALADIN_SOCIETY.YangsThoughts</t>
@@ -1622,18 +1622,18 @@
   </si>
   <si>
     <t xml:space="preserve">Designed to address the need for a fast and capable scout; and to rapidly upgrade the Star League era units the Society had acquired from forgotten Brian Caches, the Zephyr-Z is a complete upgrade package. A combination of a TAG, Nova CEWS and a brand new Streak Narc allow the Zephyr to act as both a scout and a spotter, whilst a pair of Improved Heavy Medium Lasers provide a potent sting should the Zephyr stumble on enemy scouts or scout hunters.
-&lt;b&gt;&lt;color=#ffcc00&gt;Hover: Fast on open ground and water, slow in rough terrain, not very agile.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 170 20
-&lt;b&gt;Left&lt;/b&gt; 125 20
-&lt;b&gt;Right&lt;/b&gt; 125 20
-&lt;b&gt;Rear&lt;/b&gt; 95 20
-&lt;b&gt;Turret&lt;/b&gt; 155 20
-&lt;b&gt;Total&lt;/b&gt; 670 100</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Воздушная подушка: быстрый на открытых участках и воде, медленный на пересеченной местности, не очень маневренный.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 170 20
+&lt;b&gt;Левая&lt;/b&gt; 125 20
+&lt;b&gt;Правая&lt;/b&gt; 125 20
+&lt;b&gt;Задняя&lt;/b&gt; 95 20
+&lt;b&gt;Башня&lt;/b&gt; 155 20
+&lt;b&gt;Итого&lt;/b&gt; 670 100</t>
   </si>
   <si>
     <t>vehiclechassisdef_ZEPHYR_SOCIETY.YangsThoughts</t>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>chassisdef_adder_ADR-Z.Description.Details</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Light Brawler</t>
   </si>
   <si>
+    <t>Лёгкий борец</t>
+  </si>
+  <si>
     <t>chassisdef_adder_ADR-Z.YangsThoughts</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>Ranged Assault</t>
   </si>
   <si>
+    <t>Дальнобойный штурм</t>
+  </si>
+  <si>
     <t>chassisdef_dragonfire_iic_DGR-IIC-A.YangsThoughts</t>
   </si>
   <si>
@@ -324,6 +330,9 @@
     <t>Superheavy OmniMech</t>
   </si>
   <si>
+    <t>Сверхтяжёлый омнимех</t>
+  </si>
+  <si>
     <t>chassisdef_hyperion_HYP-A.YangsThoughts</t>
   </si>
   <si>
@@ -600,6 +609,9 @@
   </si>
   <si>
     <t>Combat Support</t>
+  </si>
+  <si>
+    <t>Боевая поддержка</t>
   </si>
   <si>
     <t>chassisdef_rabid_coyote_RB-Z.YangsThoughts</t>
@@ -2409,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2443,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2454,13 +2466,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -2471,13 +2483,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -2488,13 +2500,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -2505,13 +2517,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -2522,13 +2534,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -2539,13 +2551,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -2556,13 +2568,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -2573,13 +2585,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -2590,13 +2602,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -2607,13 +2619,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -2624,13 +2636,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -2641,13 +2653,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -2658,13 +2670,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -2675,13 +2687,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -2692,13 +2704,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -2709,13 +2721,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -2726,13 +2738,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -2743,13 +2755,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -2760,13 +2772,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -2777,13 +2789,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -2794,13 +2806,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -2811,13 +2823,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -2828,13 +2840,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -2845,13 +2857,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -2862,13 +2874,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -2879,13 +2891,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -2896,13 +2908,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -2913,13 +2925,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -2930,13 +2942,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -2947,13 +2959,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -2964,13 +2976,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -2981,13 +2993,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -2998,13 +3010,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -3015,13 +3027,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -3032,13 +3044,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -3049,13 +3061,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -3066,7 +3078,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -3081,13 +3093,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -3098,13 +3110,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -3115,7 +3127,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
@@ -3130,13 +3142,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -3147,13 +3159,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -3164,7 +3176,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
@@ -3179,13 +3191,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -3196,13 +3208,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -3213,7 +3225,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -3228,13 +3240,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -3245,13 +3257,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -3262,13 +3274,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -3279,13 +3291,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -3296,13 +3308,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -3313,13 +3325,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -3330,13 +3342,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -3347,13 +3359,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -3364,13 +3376,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -3381,13 +3393,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -3398,13 +3410,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -3415,13 +3427,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -3432,13 +3444,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -3449,13 +3461,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -3466,13 +3478,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -3483,13 +3495,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -3500,13 +3512,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -3517,13 +3529,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -3534,13 +3546,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -3551,13 +3563,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -3568,13 +3580,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -3585,13 +3597,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -3602,13 +3614,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -3619,13 +3631,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -3636,13 +3648,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -3653,13 +3665,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -3670,13 +3682,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -3687,13 +3699,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -3704,13 +3716,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -3721,13 +3733,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -3738,13 +3750,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3755,13 +3767,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3772,13 +3784,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -3789,13 +3801,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -3806,13 +3818,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -3823,13 +3835,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -3840,13 +3852,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -3857,13 +3869,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
@@ -3874,13 +3886,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -3891,13 +3903,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -3908,13 +3920,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -3925,13 +3937,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -3942,13 +3954,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3959,13 +3971,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -3976,13 +3988,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -3993,13 +4005,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -4010,13 +4022,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -4027,13 +4039,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -4044,13 +4056,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -4061,13 +4073,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -4078,13 +4090,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -4095,13 +4107,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -4112,13 +4124,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -4129,13 +4141,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
@@ -4146,13 +4158,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -4163,13 +4175,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -4180,13 +4192,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -4197,13 +4209,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4214,13 +4226,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -4231,13 +4243,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -4248,13 +4260,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -4265,13 +4277,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -4282,13 +4294,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -4299,13 +4311,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -4316,13 +4328,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4333,13 +4345,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4350,13 +4362,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4367,13 +4379,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -4384,13 +4396,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -4401,7 +4413,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
@@ -4418,13 +4430,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4435,13 +4447,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
@@ -4452,13 +4464,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>3</v>
@@ -4469,13 +4481,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>3</v>
@@ -4486,13 +4498,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -4503,13 +4515,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>3</v>
@@ -4520,13 +4532,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -4537,13 +4549,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -4554,13 +4566,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -4571,13 +4583,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4588,13 +4600,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>3</v>
@@ -4605,13 +4617,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
@@ -4622,13 +4634,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>3</v>
@@ -4639,13 +4651,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -4656,13 +4668,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -4673,13 +4685,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -4690,13 +4702,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -4707,13 +4719,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -4724,13 +4736,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -4741,13 +4753,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -4758,13 +4770,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -4775,13 +4787,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -4792,13 +4804,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -4809,13 +4821,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -4826,13 +4838,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>3</v>
@@ -4843,13 +4855,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -4860,13 +4872,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -4877,13 +4889,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
@@ -4894,13 +4906,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -4911,13 +4923,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -4928,13 +4940,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -4945,13 +4957,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -4962,13 +4974,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -4979,13 +4991,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -4996,13 +5008,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -5013,13 +5025,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -5030,13 +5042,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -5047,13 +5059,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -5064,13 +5076,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>3</v>
@@ -5081,13 +5093,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -5098,13 +5110,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -5115,13 +5127,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -5132,13 +5144,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -5149,13 +5161,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -5166,13 +5178,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -5183,13 +5195,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -5200,13 +5212,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -5217,13 +5229,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -5234,13 +5246,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -5251,13 +5263,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -5268,13 +5280,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -5285,13 +5297,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -5302,13 +5314,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -5319,13 +5331,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -5336,13 +5348,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -5353,13 +5365,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -5370,13 +5382,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -5387,13 +5399,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -5404,13 +5416,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -5421,13 +5433,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -5438,13 +5450,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -5455,13 +5467,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -5472,13 +5484,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -5489,13 +5501,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -5506,13 +5518,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -5523,13 +5535,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -5540,13 +5552,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -5557,13 +5569,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -5574,13 +5586,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -5591,13 +5603,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -5608,13 +5620,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -5625,13 +5637,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -5642,13 +5654,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -5659,13 +5671,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -5676,13 +5688,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -5693,13 +5705,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -5710,13 +5722,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -5727,13 +5739,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -5744,13 +5756,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -5761,13 +5773,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -5778,13 +5790,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -5795,13 +5807,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -5812,13 +5824,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -5829,13 +5841,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -5846,13 +5858,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -5863,13 +5875,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -5880,13 +5892,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -5897,13 +5909,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -5914,13 +5926,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -5931,13 +5943,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -5948,13 +5960,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -5965,13 +5977,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -5982,13 +5994,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -5999,13 +6011,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -6016,13 +6028,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -6033,13 +6045,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -6050,13 +6062,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -6067,13 +6079,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -6084,13 +6096,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -6101,13 +6113,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -6118,13 +6130,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -6135,13 +6147,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -6152,13 +6164,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -6169,13 +6181,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -6186,13 +6198,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -6203,13 +6215,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -6220,13 +6232,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -6237,13 +6249,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -6254,13 +6266,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -6271,13 +6283,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -6288,13 +6300,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -6305,13 +6317,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -6322,13 +6334,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -6339,13 +6351,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -6356,13 +6368,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -6373,13 +6385,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -6390,13 +6402,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -6407,13 +6419,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -6424,13 +6436,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -6441,13 +6453,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -6458,13 +6470,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -6475,13 +6487,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -6492,13 +6504,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -6509,13 +6521,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -6526,13 +6538,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -6543,13 +6555,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -6560,13 +6572,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>3</v>
@@ -6577,13 +6589,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -6594,13 +6606,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -6611,13 +6623,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -6628,13 +6640,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -6645,13 +6657,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -6662,13 +6674,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -6679,13 +6691,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -6696,13 +6708,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -6713,13 +6725,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -6730,13 +6742,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -6747,13 +6759,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -6764,13 +6776,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -6781,13 +6793,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -6798,13 +6810,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -6815,13 +6827,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
@@ -6832,13 +6844,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -6849,13 +6861,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -6866,13 +6878,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>3</v>
@@ -6883,13 +6895,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -6900,13 +6912,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -6917,13 +6929,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -6934,13 +6946,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -6951,13 +6963,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -6968,13 +6980,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
